--- a/output.xlsx
+++ b/output.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="735">
   <si>
     <t>baseline</t>
   </si>
   <si>
-    <t>counterfca Scenario</t>
-  </si>
-  <si>
-    <t>Difference</t>
+    <t>counterfca Scenario Adva manuf</t>
+  </si>
+  <si>
+    <t>counterfca Scenario influence</t>
+  </si>
+  <si>
+    <t>counterfca Scenario large sectors</t>
   </si>
   <si>
     <t>names_xx</t>
@@ -40,7 +43,7 @@
     <t>Coal and lignite</t>
   </si>
   <si>
-    <t>Extraction Of Crude Petroleum And Natural Gas  &amp; Mining Of Metal Ores</t>
+    <t>Crude Petroleum And Natural Gas &amp; Metal Ores</t>
   </si>
   <si>
     <t>Other mining and quarrying products</t>
@@ -124,7 +127,7 @@
     <t>Rubber and plastic products</t>
   </si>
   <si>
-    <t>Cement, lime, plaster and articles of concrete, cement and plaster</t>
+    <t>Manufacture of cement, lime, plaster and articles of concrete, cement and plaster</t>
   </si>
   <si>
     <t>Glass, refractory, clay, other porcelain and ceramic, stone and abrasive products - 23.1-4/7-9</t>
@@ -136,10 +139,7 @@
     <t>Other basic metals and casting</t>
   </si>
   <si>
-    <t>Weapons and ammunition</t>
-  </si>
-  <si>
-    <t>Fabricated metal products, excl. machinery and equipment and weapons &amp; ammunition - 25.1-3/25.5-9</t>
+    <t>Fabricated metal products, excl. machinery and equipment</t>
   </si>
   <si>
     <t>Computer, electronic and optical products</t>
@@ -250,10 +250,1900 @@
     <t>Services auxiliary to financial services and insurance services</t>
   </si>
   <si>
-    <t>Real estate services on a fee or contract basis</t>
-  </si>
-  <si>
-    <t>Real estate services, excluding on a fee or contract basis and imputed rent</t>
+    <t>Real estate services, excluding on a fee or contract basis and excluding imputed rent</t>
+  </si>
+  <si>
+    <t>Real estate activities on a fee or contract basis</t>
+  </si>
+  <si>
+    <t>Legal services</t>
+  </si>
+  <si>
+    <t>Accounting, bookkeeping and auditing services; tax consulting services</t>
+  </si>
+  <si>
+    <t>Services of head offices; management consulting services</t>
+  </si>
+  <si>
+    <t>Architectural and engineering services; technical testing and analysis services</t>
+  </si>
+  <si>
+    <t>Scientific research and development services</t>
+  </si>
+  <si>
+    <t>Advertising and market research services</t>
+  </si>
+  <si>
+    <t>Other professional, scientific and technical services</t>
+  </si>
+  <si>
+    <t>Veterinary services</t>
+  </si>
+  <si>
+    <t>Rental and leasing services</t>
+  </si>
+  <si>
+    <t>Employment services</t>
+  </si>
+  <si>
+    <t>Travel agency, tour operator and other reservation services and related services</t>
+  </si>
+  <si>
+    <t>Security and investigation services</t>
+  </si>
+  <si>
+    <t>Services to buildings and landscape</t>
+  </si>
+  <si>
+    <t>Office administrative, office support and other business support services</t>
+  </si>
+  <si>
+    <t>Public administration and defence services; compulsory social security services</t>
+  </si>
+  <si>
+    <t>Education services</t>
+  </si>
+  <si>
+    <t>Human health services</t>
+  </si>
+  <si>
+    <t>Residential Care  &amp; Social Work Activities</t>
+  </si>
+  <si>
+    <t>Creative, arts and entertainment services</t>
+  </si>
+  <si>
+    <t>Libraries, archives, museums and other cultural services</t>
+  </si>
+  <si>
+    <t>Gambling and betting services</t>
+  </si>
+  <si>
+    <t>Sports services and amusement and recreation services</t>
+  </si>
+  <si>
+    <t>Services furnished by membership organisations</t>
+  </si>
+  <si>
+    <t>Repair services of computers and personal and household goods</t>
+  </si>
+  <si>
+    <t>Other personal services</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>counterfca Scenario Adva manuf</t>
+  </si>
+  <si>
+    <t>counterfca Scenario influence</t>
+  </si>
+  <si>
+    <t>counterfca Scenario large sectors</t>
+  </si>
+  <si>
+    <t>names_xx</t>
+  </si>
+  <si>
+    <t>Products of agriculture, hunting and related services</t>
+  </si>
+  <si>
+    <t>Products of forestry, logging and related services</t>
+  </si>
+  <si>
+    <t>Fish and other fishing products; aquaculture products; support services to fishing</t>
+  </si>
+  <si>
+    <t>Coal and lignite</t>
+  </si>
+  <si>
+    <t>Crude Petroleum And Natural Gas &amp; Metal Ores</t>
+  </si>
+  <si>
+    <t>Other mining and quarrying products</t>
+  </si>
+  <si>
+    <t>Mining support services</t>
+  </si>
+  <si>
+    <t>Preserved meat and meat products</t>
+  </si>
+  <si>
+    <t>Processed and preserved fish, crustaceans, molluscs, fruit and vegetables</t>
+  </si>
+  <si>
+    <t>Vegetable and animal oils and fats</t>
+  </si>
+  <si>
+    <t>Dairy products</t>
+  </si>
+  <si>
+    <t>Grain mill products, starches and starch products</t>
+  </si>
+  <si>
+    <t>Bakery and farinaceous products</t>
+  </si>
+  <si>
+    <t>Other food products</t>
+  </si>
+  <si>
+    <t>Prepared animal feeds</t>
+  </si>
+  <si>
+    <t>Alcoholic beverages  &amp; Tobacco products</t>
+  </si>
+  <si>
+    <t>Soft drinks</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Wearing apparel</t>
+  </si>
+  <si>
+    <t>Leather and related products</t>
+  </si>
+  <si>
+    <t>Wood and of products of wood and cork, except furniture; articles of straw and plaiting materials</t>
+  </si>
+  <si>
+    <t>Paper and paper products</t>
+  </si>
+  <si>
+    <t>Printing and recording services</t>
+  </si>
+  <si>
+    <t>Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Paints, varnishes and similar coatings, printing ink and mastics</t>
+  </si>
+  <si>
+    <t>Soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
+  </si>
+  <si>
+    <t>Other chemical products</t>
+  </si>
+  <si>
+    <t>Industrial gases, inorganics and fertilisers (all inorganic chemicals) - 20.11/13/15</t>
+  </si>
+  <si>
+    <t>Petrochemicals - 20.14/16/17/60</t>
+  </si>
+  <si>
+    <t>Dyestuffs, agro-chemicals - 20.12/20</t>
+  </si>
+  <si>
+    <t>Basic pharmaceutical products and pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>Manufacture of cement, lime, plaster and articles of concrete, cement and plaster</t>
+  </si>
+  <si>
+    <t>Glass, refractory, clay, other porcelain and ceramic, stone and abrasive products - 23.1-4/7-9</t>
+  </si>
+  <si>
+    <t>Basic iron and steel</t>
+  </si>
+  <si>
+    <t>Other basic metals and casting</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, excl. machinery and equipment</t>
+  </si>
+  <si>
+    <t>Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>Electrical equipment</t>
+  </si>
+  <si>
+    <t>Machinery and equipment n.e.c.</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>Ships and boats</t>
+  </si>
+  <si>
+    <t>Air and spacecraft and related machinery</t>
+  </si>
+  <si>
+    <t>Other transport equipment - 30.2/4/9</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Other manufactured goods</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of ships and boats</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of aircraft and spacecraft</t>
+  </si>
+  <si>
+    <t>Rest of repair; Installation - 33.11-14/17/19/20</t>
+  </si>
+  <si>
+    <t>Electricity, transmission and distribution</t>
+  </si>
+  <si>
+    <t>Gas; distribution of gaseous fuels through mains; steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Natural water; water treatment and supply services</t>
+  </si>
+  <si>
+    <t>Sewerage services; sewage sludge</t>
+  </si>
+  <si>
+    <t>Waste collection, treatment and disposal services; materials recovery services</t>
+  </si>
+  <si>
+    <t>Remediation services and other waste management services</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade and repair services of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Rail transport services</t>
+  </si>
+  <si>
+    <t>Land transport services and transport services via pipelines, excluding rail transport</t>
+  </si>
+  <si>
+    <t>Water transport services</t>
+  </si>
+  <si>
+    <t>Air transport services</t>
+  </si>
+  <si>
+    <t>Warehousing and support services for transportation</t>
+  </si>
+  <si>
+    <t>Postal and courier services</t>
+  </si>
+  <si>
+    <t>Accommodation services</t>
+  </si>
+  <si>
+    <t>Food and beverage serving services</t>
+  </si>
+  <si>
+    <t>Publishing services</t>
+  </si>
+  <si>
+    <t>Motion Picture, Video &amp; TV Programme Production, Sound Recording &amp; Music Publishing Activities &amp; Programming And Broadcasting Activities</t>
+  </si>
+  <si>
+    <t>Telecommunications services</t>
+  </si>
+  <si>
+    <t>Computer programming, consultancy and related services</t>
+  </si>
+  <si>
+    <t>Information services</t>
+  </si>
+  <si>
+    <t>Financial services, except insurance and pension funding</t>
+  </si>
+  <si>
+    <t>Insurance, reinsurance and pension funding services, except compulsory social security</t>
+  </si>
+  <si>
+    <t>Services auxiliary to financial services and insurance services</t>
+  </si>
+  <si>
+    <t>Real estate services, excluding on a fee or contract basis and excluding imputed rent</t>
+  </si>
+  <si>
+    <t>Real estate activities on a fee or contract basis</t>
+  </si>
+  <si>
+    <t>Legal services</t>
+  </si>
+  <si>
+    <t>Accounting, bookkeeping and auditing services; tax consulting services</t>
+  </si>
+  <si>
+    <t>Services of head offices; management consulting services</t>
+  </si>
+  <si>
+    <t>Architectural and engineering services; technical testing and analysis services</t>
+  </si>
+  <si>
+    <t>Scientific research and development services</t>
+  </si>
+  <si>
+    <t>Advertising and market research services</t>
+  </si>
+  <si>
+    <t>Other professional, scientific and technical services</t>
+  </si>
+  <si>
+    <t>Veterinary services</t>
+  </si>
+  <si>
+    <t>Rental and leasing services</t>
+  </si>
+  <si>
+    <t>Employment services</t>
+  </si>
+  <si>
+    <t>Travel agency, tour operator and other reservation services and related services</t>
+  </si>
+  <si>
+    <t>Security and investigation services</t>
+  </si>
+  <si>
+    <t>Services to buildings and landscape</t>
+  </si>
+  <si>
+    <t>Office administrative, office support and other business support services</t>
+  </si>
+  <si>
+    <t>Public administration and defence services; compulsory social security services</t>
+  </si>
+  <si>
+    <t>Education services</t>
+  </si>
+  <si>
+    <t>Human health services</t>
+  </si>
+  <si>
+    <t>Residential Care  &amp; Social Work Activities</t>
+  </si>
+  <si>
+    <t>Creative, arts and entertainment services</t>
+  </si>
+  <si>
+    <t>Libraries, archives, museums and other cultural services</t>
+  </si>
+  <si>
+    <t>Gambling and betting services</t>
+  </si>
+  <si>
+    <t>Sports services and amusement and recreation services</t>
+  </si>
+  <si>
+    <t>Services furnished by membership organisations</t>
+  </si>
+  <si>
+    <t>Repair services of computers and personal and household goods</t>
+  </si>
+  <si>
+    <t>Other personal services</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>counterfca Scenario Adva manuf</t>
+  </si>
+  <si>
+    <t>counterfca Scenario influence</t>
+  </si>
+  <si>
+    <t>counterfca Scenario large sectors</t>
+  </si>
+  <si>
+    <t>names_xx</t>
+  </si>
+  <si>
+    <t>Products of agriculture, hunting and related services</t>
+  </si>
+  <si>
+    <t>Products of forestry, logging and related services</t>
+  </si>
+  <si>
+    <t>Fish and other fishing products; aquaculture products; support services to fishing</t>
+  </si>
+  <si>
+    <t>Coal and lignite</t>
+  </si>
+  <si>
+    <t>Crude Petroleum And Natural Gas &amp; Metal Ores</t>
+  </si>
+  <si>
+    <t>Other mining and quarrying products</t>
+  </si>
+  <si>
+    <t>Mining support services</t>
+  </si>
+  <si>
+    <t>Preserved meat and meat products</t>
+  </si>
+  <si>
+    <t>Processed and preserved fish, crustaceans, molluscs, fruit and vegetables</t>
+  </si>
+  <si>
+    <t>Vegetable and animal oils and fats</t>
+  </si>
+  <si>
+    <t>Dairy products</t>
+  </si>
+  <si>
+    <t>Grain mill products, starches and starch products</t>
+  </si>
+  <si>
+    <t>Bakery and farinaceous products</t>
+  </si>
+  <si>
+    <t>Other food products</t>
+  </si>
+  <si>
+    <t>Prepared animal feeds</t>
+  </si>
+  <si>
+    <t>Alcoholic beverages  &amp; Tobacco products</t>
+  </si>
+  <si>
+    <t>Soft drinks</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Wearing apparel</t>
+  </si>
+  <si>
+    <t>Leather and related products</t>
+  </si>
+  <si>
+    <t>Wood and of products of wood and cork, except furniture; articles of straw and plaiting materials</t>
+  </si>
+  <si>
+    <t>Paper and paper products</t>
+  </si>
+  <si>
+    <t>Printing and recording services</t>
+  </si>
+  <si>
+    <t>Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Paints, varnishes and similar coatings, printing ink and mastics</t>
+  </si>
+  <si>
+    <t>Soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
+  </si>
+  <si>
+    <t>Other chemical products</t>
+  </si>
+  <si>
+    <t>Industrial gases, inorganics and fertilisers (all inorganic chemicals) - 20.11/13/15</t>
+  </si>
+  <si>
+    <t>Petrochemicals - 20.14/16/17/60</t>
+  </si>
+  <si>
+    <t>Dyestuffs, agro-chemicals - 20.12/20</t>
+  </si>
+  <si>
+    <t>Basic pharmaceutical products and pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>Manufacture of cement, lime, plaster and articles of concrete, cement and plaster</t>
+  </si>
+  <si>
+    <t>Glass, refractory, clay, other porcelain and ceramic, stone and abrasive products - 23.1-4/7-9</t>
+  </si>
+  <si>
+    <t>Basic iron and steel</t>
+  </si>
+  <si>
+    <t>Other basic metals and casting</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, excl. machinery and equipment</t>
+  </si>
+  <si>
+    <t>Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>Electrical equipment</t>
+  </si>
+  <si>
+    <t>Machinery and equipment n.e.c.</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>Ships and boats</t>
+  </si>
+  <si>
+    <t>Air and spacecraft and related machinery</t>
+  </si>
+  <si>
+    <t>Other transport equipment - 30.2/4/9</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Other manufactured goods</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of ships and boats</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of aircraft and spacecraft</t>
+  </si>
+  <si>
+    <t>Rest of repair; Installation - 33.11-14/17/19/20</t>
+  </si>
+  <si>
+    <t>Electricity, transmission and distribution</t>
+  </si>
+  <si>
+    <t>Gas; distribution of gaseous fuels through mains; steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Natural water; water treatment and supply services</t>
+  </si>
+  <si>
+    <t>Sewerage services; sewage sludge</t>
+  </si>
+  <si>
+    <t>Waste collection, treatment and disposal services; materials recovery services</t>
+  </si>
+  <si>
+    <t>Remediation services and other waste management services</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade and repair services of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Rail transport services</t>
+  </si>
+  <si>
+    <t>Land transport services and transport services via pipelines, excluding rail transport</t>
+  </si>
+  <si>
+    <t>Water transport services</t>
+  </si>
+  <si>
+    <t>Air transport services</t>
+  </si>
+  <si>
+    <t>Warehousing and support services for transportation</t>
+  </si>
+  <si>
+    <t>Postal and courier services</t>
+  </si>
+  <si>
+    <t>Accommodation services</t>
+  </si>
+  <si>
+    <t>Food and beverage serving services</t>
+  </si>
+  <si>
+    <t>Publishing services</t>
+  </si>
+  <si>
+    <t>Motion Picture, Video &amp; TV Programme Production, Sound Recording &amp; Music Publishing Activities &amp; Programming And Broadcasting Activities</t>
+  </si>
+  <si>
+    <t>Telecommunications services</t>
+  </si>
+  <si>
+    <t>Computer programming, consultancy and related services</t>
+  </si>
+  <si>
+    <t>Information services</t>
+  </si>
+  <si>
+    <t>Financial services, except insurance and pension funding</t>
+  </si>
+  <si>
+    <t>Insurance, reinsurance and pension funding services, except compulsory social security</t>
+  </si>
+  <si>
+    <t>Services auxiliary to financial services and insurance services</t>
+  </si>
+  <si>
+    <t>Real estate services, excluding on a fee or contract basis and excluding imputed rent</t>
+  </si>
+  <si>
+    <t>Real estate activities on a fee or contract basis</t>
+  </si>
+  <si>
+    <t>Legal services</t>
+  </si>
+  <si>
+    <t>Accounting, bookkeeping and auditing services; tax consulting services</t>
+  </si>
+  <si>
+    <t>Services of head offices; management consulting services</t>
+  </si>
+  <si>
+    <t>Architectural and engineering services; technical testing and analysis services</t>
+  </si>
+  <si>
+    <t>Scientific research and development services</t>
+  </si>
+  <si>
+    <t>Advertising and market research services</t>
+  </si>
+  <si>
+    <t>Other professional, scientific and technical services</t>
+  </si>
+  <si>
+    <t>Veterinary services</t>
+  </si>
+  <si>
+    <t>Rental and leasing services</t>
+  </si>
+  <si>
+    <t>Employment services</t>
+  </si>
+  <si>
+    <t>Travel agency, tour operator and other reservation services and related services</t>
+  </si>
+  <si>
+    <t>Security and investigation services</t>
+  </si>
+  <si>
+    <t>Services to buildings and landscape</t>
+  </si>
+  <si>
+    <t>Office administrative, office support and other business support services</t>
+  </si>
+  <si>
+    <t>Public administration and defence services; compulsory social security services</t>
+  </si>
+  <si>
+    <t>Education services</t>
+  </si>
+  <si>
+    <t>Human health services</t>
+  </si>
+  <si>
+    <t>Residential Care  &amp; Social Work Activities</t>
+  </si>
+  <si>
+    <t>Creative, arts and entertainment services</t>
+  </si>
+  <si>
+    <t>Libraries, archives, museums and other cultural services</t>
+  </si>
+  <si>
+    <t>Gambling and betting services</t>
+  </si>
+  <si>
+    <t>Sports services and amusement and recreation services</t>
+  </si>
+  <si>
+    <t>Services furnished by membership organisations</t>
+  </si>
+  <si>
+    <t>Repair services of computers and personal and household goods</t>
+  </si>
+  <si>
+    <t>Other personal services</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>counterfca Scenario Adva manuf</t>
+  </si>
+  <si>
+    <t>counterfca Scenario influence</t>
+  </si>
+  <si>
+    <t>counterfca Scenario large sectors</t>
+  </si>
+  <si>
+    <t>names_xx</t>
+  </si>
+  <si>
+    <t>Products of agriculture, hunting and related services</t>
+  </si>
+  <si>
+    <t>Products of forestry, logging and related services</t>
+  </si>
+  <si>
+    <t>Fish and other fishing products; aquaculture products; support services to fishing</t>
+  </si>
+  <si>
+    <t>Coal and lignite</t>
+  </si>
+  <si>
+    <t>Crude Petroleum And Natural Gas &amp; Metal Ores</t>
+  </si>
+  <si>
+    <t>Other mining and quarrying products</t>
+  </si>
+  <si>
+    <t>Mining support services</t>
+  </si>
+  <si>
+    <t>Preserved meat and meat products</t>
+  </si>
+  <si>
+    <t>Processed and preserved fish, crustaceans, molluscs, fruit and vegetables</t>
+  </si>
+  <si>
+    <t>Vegetable and animal oils and fats</t>
+  </si>
+  <si>
+    <t>Dairy products</t>
+  </si>
+  <si>
+    <t>Grain mill products, starches and starch products</t>
+  </si>
+  <si>
+    <t>Bakery and farinaceous products</t>
+  </si>
+  <si>
+    <t>Other food products</t>
+  </si>
+  <si>
+    <t>Prepared animal feeds</t>
+  </si>
+  <si>
+    <t>Alcoholic beverages  &amp; Tobacco products</t>
+  </si>
+  <si>
+    <t>Soft drinks</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Wearing apparel</t>
+  </si>
+  <si>
+    <t>Leather and related products</t>
+  </si>
+  <si>
+    <t>Wood and of products of wood and cork, except furniture; articles of straw and plaiting materials</t>
+  </si>
+  <si>
+    <t>Paper and paper products</t>
+  </si>
+  <si>
+    <t>Printing and recording services</t>
+  </si>
+  <si>
+    <t>Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Paints, varnishes and similar coatings, printing ink and mastics</t>
+  </si>
+  <si>
+    <t>Soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
+  </si>
+  <si>
+    <t>Other chemical products</t>
+  </si>
+  <si>
+    <t>Industrial gases, inorganics and fertilisers (all inorganic chemicals) - 20.11/13/15</t>
+  </si>
+  <si>
+    <t>Petrochemicals - 20.14/16/17/60</t>
+  </si>
+  <si>
+    <t>Dyestuffs, agro-chemicals - 20.12/20</t>
+  </si>
+  <si>
+    <t>Basic pharmaceutical products and pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>Manufacture of cement, lime, plaster and articles of concrete, cement and plaster</t>
+  </si>
+  <si>
+    <t>Glass, refractory, clay, other porcelain and ceramic, stone and abrasive products - 23.1-4/7-9</t>
+  </si>
+  <si>
+    <t>Basic iron and steel</t>
+  </si>
+  <si>
+    <t>Other basic metals and casting</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, excl. machinery and equipment</t>
+  </si>
+  <si>
+    <t>Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>Electrical equipment</t>
+  </si>
+  <si>
+    <t>Machinery and equipment n.e.c.</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>Ships and boats</t>
+  </si>
+  <si>
+    <t>Air and spacecraft and related machinery</t>
+  </si>
+  <si>
+    <t>Other transport equipment - 30.2/4/9</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Other manufactured goods</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of ships and boats</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of aircraft and spacecraft</t>
+  </si>
+  <si>
+    <t>Rest of repair; Installation - 33.11-14/17/19/20</t>
+  </si>
+  <si>
+    <t>Electricity, transmission and distribution</t>
+  </si>
+  <si>
+    <t>Gas; distribution of gaseous fuels through mains; steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Natural water; water treatment and supply services</t>
+  </si>
+  <si>
+    <t>Sewerage services; sewage sludge</t>
+  </si>
+  <si>
+    <t>Waste collection, treatment and disposal services; materials recovery services</t>
+  </si>
+  <si>
+    <t>Remediation services and other waste management services</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade and repair services of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Rail transport services</t>
+  </si>
+  <si>
+    <t>Land transport services and transport services via pipelines, excluding rail transport</t>
+  </si>
+  <si>
+    <t>Water transport services</t>
+  </si>
+  <si>
+    <t>Air transport services</t>
+  </si>
+  <si>
+    <t>Warehousing and support services for transportation</t>
+  </si>
+  <si>
+    <t>Postal and courier services</t>
+  </si>
+  <si>
+    <t>Accommodation services</t>
+  </si>
+  <si>
+    <t>Food and beverage serving services</t>
+  </si>
+  <si>
+    <t>Publishing services</t>
+  </si>
+  <si>
+    <t>Motion Picture, Video &amp; TV Programme Production, Sound Recording &amp; Music Publishing Activities &amp; Programming And Broadcasting Activities</t>
+  </si>
+  <si>
+    <t>Telecommunications services</t>
+  </si>
+  <si>
+    <t>Computer programming, consultancy and related services</t>
+  </si>
+  <si>
+    <t>Information services</t>
+  </si>
+  <si>
+    <t>Financial services, except insurance and pension funding</t>
+  </si>
+  <si>
+    <t>Insurance, reinsurance and pension funding services, except compulsory social security</t>
+  </si>
+  <si>
+    <t>Services auxiliary to financial services and insurance services</t>
+  </si>
+  <si>
+    <t>Real estate services, excluding on a fee or contract basis and excluding imputed rent</t>
+  </si>
+  <si>
+    <t>Real estate activities on a fee or contract basis</t>
+  </si>
+  <si>
+    <t>Legal services</t>
+  </si>
+  <si>
+    <t>Accounting, bookkeeping and auditing services; tax consulting services</t>
+  </si>
+  <si>
+    <t>Services of head offices; management consulting services</t>
+  </si>
+  <si>
+    <t>Architectural and engineering services; technical testing and analysis services</t>
+  </si>
+  <si>
+    <t>Scientific research and development services</t>
+  </si>
+  <si>
+    <t>Advertising and market research services</t>
+  </si>
+  <si>
+    <t>Other professional, scientific and technical services</t>
+  </si>
+  <si>
+    <t>Veterinary services</t>
+  </si>
+  <si>
+    <t>Rental and leasing services</t>
+  </si>
+  <si>
+    <t>Employment services</t>
+  </si>
+  <si>
+    <t>Travel agency, tour operator and other reservation services and related services</t>
+  </si>
+  <si>
+    <t>Security and investigation services</t>
+  </si>
+  <si>
+    <t>Services to buildings and landscape</t>
+  </si>
+  <si>
+    <t>Office administrative, office support and other business support services</t>
+  </si>
+  <si>
+    <t>Public administration and defence services; compulsory social security services</t>
+  </si>
+  <si>
+    <t>Education services</t>
+  </si>
+  <si>
+    <t>Human health services</t>
+  </si>
+  <si>
+    <t>Residential Care  &amp; Social Work Activities</t>
+  </si>
+  <si>
+    <t>Creative, arts and entertainment services</t>
+  </si>
+  <si>
+    <t>Libraries, archives, museums and other cultural services</t>
+  </si>
+  <si>
+    <t>Gambling and betting services</t>
+  </si>
+  <si>
+    <t>Sports services and amusement and recreation services</t>
+  </si>
+  <si>
+    <t>Services furnished by membership organisations</t>
+  </si>
+  <si>
+    <t>Repair services of computers and personal and household goods</t>
+  </si>
+  <si>
+    <t>Other personal services</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>counterfca Scenario Adva manuf</t>
+  </si>
+  <si>
+    <t>counterfca Scenario influence</t>
+  </si>
+  <si>
+    <t>counterfca Scenario large sectors</t>
+  </si>
+  <si>
+    <t>names_xx</t>
+  </si>
+  <si>
+    <t>Products of agriculture, hunting and related services</t>
+  </si>
+  <si>
+    <t>Products of forestry, logging and related services</t>
+  </si>
+  <si>
+    <t>Fish and other fishing products; aquaculture products; support services to fishing</t>
+  </si>
+  <si>
+    <t>Coal and lignite</t>
+  </si>
+  <si>
+    <t>Crude Petroleum And Natural Gas &amp; Metal Ores</t>
+  </si>
+  <si>
+    <t>Other mining and quarrying products</t>
+  </si>
+  <si>
+    <t>Mining support services</t>
+  </si>
+  <si>
+    <t>Preserved meat and meat products</t>
+  </si>
+  <si>
+    <t>Processed and preserved fish, crustaceans, molluscs, fruit and vegetables</t>
+  </si>
+  <si>
+    <t>Vegetable and animal oils and fats</t>
+  </si>
+  <si>
+    <t>Dairy products</t>
+  </si>
+  <si>
+    <t>Grain mill products, starches and starch products</t>
+  </si>
+  <si>
+    <t>Bakery and farinaceous products</t>
+  </si>
+  <si>
+    <t>Other food products</t>
+  </si>
+  <si>
+    <t>Prepared animal feeds</t>
+  </si>
+  <si>
+    <t>Alcoholic beverages  &amp; Tobacco products</t>
+  </si>
+  <si>
+    <t>Soft drinks</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Wearing apparel</t>
+  </si>
+  <si>
+    <t>Leather and related products</t>
+  </si>
+  <si>
+    <t>Wood and of products of wood and cork, except furniture; articles of straw and plaiting materials</t>
+  </si>
+  <si>
+    <t>Paper and paper products</t>
+  </si>
+  <si>
+    <t>Printing and recording services</t>
+  </si>
+  <si>
+    <t>Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Paints, varnishes and similar coatings, printing ink and mastics</t>
+  </si>
+  <si>
+    <t>Soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
+  </si>
+  <si>
+    <t>Other chemical products</t>
+  </si>
+  <si>
+    <t>Industrial gases, inorganics and fertilisers (all inorganic chemicals) - 20.11/13/15</t>
+  </si>
+  <si>
+    <t>Petrochemicals - 20.14/16/17/60</t>
+  </si>
+  <si>
+    <t>Dyestuffs, agro-chemicals - 20.12/20</t>
+  </si>
+  <si>
+    <t>Basic pharmaceutical products and pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>Manufacture of cement, lime, plaster and articles of concrete, cement and plaster</t>
+  </si>
+  <si>
+    <t>Glass, refractory, clay, other porcelain and ceramic, stone and abrasive products - 23.1-4/7-9</t>
+  </si>
+  <si>
+    <t>Basic iron and steel</t>
+  </si>
+  <si>
+    <t>Other basic metals and casting</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, excl. machinery and equipment</t>
+  </si>
+  <si>
+    <t>Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>Electrical equipment</t>
+  </si>
+  <si>
+    <t>Machinery and equipment n.e.c.</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>Ships and boats</t>
+  </si>
+  <si>
+    <t>Air and spacecraft and related machinery</t>
+  </si>
+  <si>
+    <t>Other transport equipment - 30.2/4/9</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Other manufactured goods</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of ships and boats</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of aircraft and spacecraft</t>
+  </si>
+  <si>
+    <t>Rest of repair; Installation - 33.11-14/17/19/20</t>
+  </si>
+  <si>
+    <t>Electricity, transmission and distribution</t>
+  </si>
+  <si>
+    <t>Gas; distribution of gaseous fuels through mains; steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Natural water; water treatment and supply services</t>
+  </si>
+  <si>
+    <t>Sewerage services; sewage sludge</t>
+  </si>
+  <si>
+    <t>Waste collection, treatment and disposal services; materials recovery services</t>
+  </si>
+  <si>
+    <t>Remediation services and other waste management services</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade and repair services of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Rail transport services</t>
+  </si>
+  <si>
+    <t>Land transport services and transport services via pipelines, excluding rail transport</t>
+  </si>
+  <si>
+    <t>Water transport services</t>
+  </si>
+  <si>
+    <t>Air transport services</t>
+  </si>
+  <si>
+    <t>Warehousing and support services for transportation</t>
+  </si>
+  <si>
+    <t>Postal and courier services</t>
+  </si>
+  <si>
+    <t>Accommodation services</t>
+  </si>
+  <si>
+    <t>Food and beverage serving services</t>
+  </si>
+  <si>
+    <t>Publishing services</t>
+  </si>
+  <si>
+    <t>Motion Picture, Video &amp; TV Programme Production, Sound Recording &amp; Music Publishing Activities &amp; Programming And Broadcasting Activities</t>
+  </si>
+  <si>
+    <t>Telecommunications services</t>
+  </si>
+  <si>
+    <t>Computer programming, consultancy and related services</t>
+  </si>
+  <si>
+    <t>Information services</t>
+  </si>
+  <si>
+    <t>Financial services, except insurance and pension funding</t>
+  </si>
+  <si>
+    <t>Insurance, reinsurance and pension funding services, except compulsory social security</t>
+  </si>
+  <si>
+    <t>Services auxiliary to financial services and insurance services</t>
+  </si>
+  <si>
+    <t>Real estate services, excluding on a fee or contract basis and excluding imputed rent</t>
+  </si>
+  <si>
+    <t>Real estate activities on a fee or contract basis</t>
+  </si>
+  <si>
+    <t>Legal services</t>
+  </si>
+  <si>
+    <t>Accounting, bookkeeping and auditing services; tax consulting services</t>
+  </si>
+  <si>
+    <t>Services of head offices; management consulting services</t>
+  </si>
+  <si>
+    <t>Architectural and engineering services; technical testing and analysis services</t>
+  </si>
+  <si>
+    <t>Scientific research and development services</t>
+  </si>
+  <si>
+    <t>Advertising and market research services</t>
+  </si>
+  <si>
+    <t>Other professional, scientific and technical services</t>
+  </si>
+  <si>
+    <t>Veterinary services</t>
+  </si>
+  <si>
+    <t>Rental and leasing services</t>
+  </si>
+  <si>
+    <t>Employment services</t>
+  </si>
+  <si>
+    <t>Travel agency, tour operator and other reservation services and related services</t>
+  </si>
+  <si>
+    <t>Security and investigation services</t>
+  </si>
+  <si>
+    <t>Services to buildings and landscape</t>
+  </si>
+  <si>
+    <t>Office administrative, office support and other business support services</t>
+  </si>
+  <si>
+    <t>Public administration and defence services; compulsory social security services</t>
+  </si>
+  <si>
+    <t>Education services</t>
+  </si>
+  <si>
+    <t>Human health services</t>
+  </si>
+  <si>
+    <t>Residential Care  &amp; Social Work Activities</t>
+  </si>
+  <si>
+    <t>Creative, arts and entertainment services</t>
+  </si>
+  <si>
+    <t>Libraries, archives, museums and other cultural services</t>
+  </si>
+  <si>
+    <t>Gambling and betting services</t>
+  </si>
+  <si>
+    <t>Sports services and amusement and recreation services</t>
+  </si>
+  <si>
+    <t>Services furnished by membership organisations</t>
+  </si>
+  <si>
+    <t>Repair services of computers and personal and household goods</t>
+  </si>
+  <si>
+    <t>Other personal services</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>counterfca Scenario Adva manuf</t>
+  </si>
+  <si>
+    <t>counterfca Scenario influence</t>
+  </si>
+  <si>
+    <t>counterfca Scenario large sectors</t>
+  </si>
+  <si>
+    <t>names_xx</t>
+  </si>
+  <si>
+    <t>Products of agriculture, hunting and related services</t>
+  </si>
+  <si>
+    <t>Products of forestry, logging and related services</t>
+  </si>
+  <si>
+    <t>Fish and other fishing products; aquaculture products; support services to fishing</t>
+  </si>
+  <si>
+    <t>Coal and lignite</t>
+  </si>
+  <si>
+    <t>Crude Petroleum And Natural Gas &amp; Metal Ores</t>
+  </si>
+  <si>
+    <t>Other mining and quarrying products</t>
+  </si>
+  <si>
+    <t>Mining support services</t>
+  </si>
+  <si>
+    <t>Preserved meat and meat products</t>
+  </si>
+  <si>
+    <t>Processed and preserved fish, crustaceans, molluscs, fruit and vegetables</t>
+  </si>
+  <si>
+    <t>Vegetable and animal oils and fats</t>
+  </si>
+  <si>
+    <t>Dairy products</t>
+  </si>
+  <si>
+    <t>Grain mill products, starches and starch products</t>
+  </si>
+  <si>
+    <t>Bakery and farinaceous products</t>
+  </si>
+  <si>
+    <t>Other food products</t>
+  </si>
+  <si>
+    <t>Prepared animal feeds</t>
+  </si>
+  <si>
+    <t>Alcoholic beverages  &amp; Tobacco products</t>
+  </si>
+  <si>
+    <t>Soft drinks</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Wearing apparel</t>
+  </si>
+  <si>
+    <t>Leather and related products</t>
+  </si>
+  <si>
+    <t>Wood and of products of wood and cork, except furniture; articles of straw and plaiting materials</t>
+  </si>
+  <si>
+    <t>Paper and paper products</t>
+  </si>
+  <si>
+    <t>Printing and recording services</t>
+  </si>
+  <si>
+    <t>Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Paints, varnishes and similar coatings, printing ink and mastics</t>
+  </si>
+  <si>
+    <t>Soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
+  </si>
+  <si>
+    <t>Other chemical products</t>
+  </si>
+  <si>
+    <t>Industrial gases, inorganics and fertilisers (all inorganic chemicals) - 20.11/13/15</t>
+  </si>
+  <si>
+    <t>Petrochemicals - 20.14/16/17/60</t>
+  </si>
+  <si>
+    <t>Dyestuffs, agro-chemicals - 20.12/20</t>
+  </si>
+  <si>
+    <t>Basic pharmaceutical products and pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>Manufacture of cement, lime, plaster and articles of concrete, cement and plaster</t>
+  </si>
+  <si>
+    <t>Glass, refractory, clay, other porcelain and ceramic, stone and abrasive products - 23.1-4/7-9</t>
+  </si>
+  <si>
+    <t>Basic iron and steel</t>
+  </si>
+  <si>
+    <t>Other basic metals and casting</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, excl. machinery and equipment</t>
+  </si>
+  <si>
+    <t>Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>Electrical equipment</t>
+  </si>
+  <si>
+    <t>Machinery and equipment n.e.c.</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>Ships and boats</t>
+  </si>
+  <si>
+    <t>Air and spacecraft and related machinery</t>
+  </si>
+  <si>
+    <t>Other transport equipment - 30.2/4/9</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Other manufactured goods</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of ships and boats</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of aircraft and spacecraft</t>
+  </si>
+  <si>
+    <t>Rest of repair; Installation - 33.11-14/17/19/20</t>
+  </si>
+  <si>
+    <t>Electricity, transmission and distribution</t>
+  </si>
+  <si>
+    <t>Gas; distribution of gaseous fuels through mains; steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Natural water; water treatment and supply services</t>
+  </si>
+  <si>
+    <t>Sewerage services; sewage sludge</t>
+  </si>
+  <si>
+    <t>Waste collection, treatment and disposal services; materials recovery services</t>
+  </si>
+  <si>
+    <t>Remediation services and other waste management services</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade and repair services of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Rail transport services</t>
+  </si>
+  <si>
+    <t>Land transport services and transport services via pipelines, excluding rail transport</t>
+  </si>
+  <si>
+    <t>Water transport services</t>
+  </si>
+  <si>
+    <t>Air transport services</t>
+  </si>
+  <si>
+    <t>Warehousing and support services for transportation</t>
+  </si>
+  <si>
+    <t>Postal and courier services</t>
+  </si>
+  <si>
+    <t>Accommodation services</t>
+  </si>
+  <si>
+    <t>Food and beverage serving services</t>
+  </si>
+  <si>
+    <t>Publishing services</t>
+  </si>
+  <si>
+    <t>Motion Picture, Video &amp; TV Programme Production, Sound Recording &amp; Music Publishing Activities &amp; Programming And Broadcasting Activities</t>
+  </si>
+  <si>
+    <t>Telecommunications services</t>
+  </si>
+  <si>
+    <t>Computer programming, consultancy and related services</t>
+  </si>
+  <si>
+    <t>Information services</t>
+  </si>
+  <si>
+    <t>Financial services, except insurance and pension funding</t>
+  </si>
+  <si>
+    <t>Insurance, reinsurance and pension funding services, except compulsory social security</t>
+  </si>
+  <si>
+    <t>Services auxiliary to financial services and insurance services</t>
+  </si>
+  <si>
+    <t>Real estate services, excluding on a fee or contract basis and excluding imputed rent</t>
+  </si>
+  <si>
+    <t>Real estate activities on a fee or contract basis</t>
+  </si>
+  <si>
+    <t>Legal services</t>
+  </si>
+  <si>
+    <t>Accounting, bookkeeping and auditing services; tax consulting services</t>
+  </si>
+  <si>
+    <t>Services of head offices; management consulting services</t>
+  </si>
+  <si>
+    <t>Architectural and engineering services; technical testing and analysis services</t>
+  </si>
+  <si>
+    <t>Scientific research and development services</t>
+  </si>
+  <si>
+    <t>Advertising and market research services</t>
+  </si>
+  <si>
+    <t>Other professional, scientific and technical services</t>
+  </si>
+  <si>
+    <t>Veterinary services</t>
+  </si>
+  <si>
+    <t>Rental and leasing services</t>
+  </si>
+  <si>
+    <t>Employment services</t>
+  </si>
+  <si>
+    <t>Travel agency, tour operator and other reservation services and related services</t>
+  </si>
+  <si>
+    <t>Security and investigation services</t>
+  </si>
+  <si>
+    <t>Services to buildings and landscape</t>
+  </si>
+  <si>
+    <t>Office administrative, office support and other business support services</t>
+  </si>
+  <si>
+    <t>Public administration and defence services; compulsory social security services</t>
+  </si>
+  <si>
+    <t>Education services</t>
+  </si>
+  <si>
+    <t>Human health services</t>
+  </si>
+  <si>
+    <t>Residential Care  &amp; Social Work Activities</t>
+  </si>
+  <si>
+    <t>Creative, arts and entertainment services</t>
+  </si>
+  <si>
+    <t>Libraries, archives, museums and other cultural services</t>
+  </si>
+  <si>
+    <t>Gambling and betting services</t>
+  </si>
+  <si>
+    <t>Sports services and amusement and recreation services</t>
+  </si>
+  <si>
+    <t>Services furnished by membership organisations</t>
+  </si>
+  <si>
+    <t>Repair services of computers and personal and household goods</t>
+  </si>
+  <si>
+    <t>Other personal services</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>counterfca Scenario Adva manuf</t>
+  </si>
+  <si>
+    <t>counterfca Scenario influence</t>
+  </si>
+  <si>
+    <t>counterfca Scenario large sectors</t>
+  </si>
+  <si>
+    <t>names_xx</t>
+  </si>
+  <si>
+    <t>Products of agriculture, hunting and related services</t>
+  </si>
+  <si>
+    <t>Products of forestry, logging and related services</t>
+  </si>
+  <si>
+    <t>Fish and other fishing products; aquaculture products; support services to fishing</t>
+  </si>
+  <si>
+    <t>Coal and lignite</t>
+  </si>
+  <si>
+    <t>Crude Petroleum And Natural Gas &amp; Metal Ores</t>
+  </si>
+  <si>
+    <t>Other mining and quarrying products</t>
+  </si>
+  <si>
+    <t>Mining support services</t>
+  </si>
+  <si>
+    <t>Preserved meat and meat products</t>
+  </si>
+  <si>
+    <t>Processed and preserved fish, crustaceans, molluscs, fruit and vegetables</t>
+  </si>
+  <si>
+    <t>Vegetable and animal oils and fats</t>
+  </si>
+  <si>
+    <t>Dairy products</t>
+  </si>
+  <si>
+    <t>Grain mill products, starches and starch products</t>
+  </si>
+  <si>
+    <t>Bakery and farinaceous products</t>
+  </si>
+  <si>
+    <t>Other food products</t>
+  </si>
+  <si>
+    <t>Prepared animal feeds</t>
+  </si>
+  <si>
+    <t>Alcoholic beverages  &amp; Tobacco products</t>
+  </si>
+  <si>
+    <t>Soft drinks</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Wearing apparel</t>
+  </si>
+  <si>
+    <t>Leather and related products</t>
+  </si>
+  <si>
+    <t>Wood and of products of wood and cork, except furniture; articles of straw and plaiting materials</t>
+  </si>
+  <si>
+    <t>Paper and paper products</t>
+  </si>
+  <si>
+    <t>Printing and recording services</t>
+  </si>
+  <si>
+    <t>Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Paints, varnishes and similar coatings, printing ink and mastics</t>
+  </si>
+  <si>
+    <t>Soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
+  </si>
+  <si>
+    <t>Other chemical products</t>
+  </si>
+  <si>
+    <t>Industrial gases, inorganics and fertilisers (all inorganic chemicals) - 20.11/13/15</t>
+  </si>
+  <si>
+    <t>Petrochemicals - 20.14/16/17/60</t>
+  </si>
+  <si>
+    <t>Dyestuffs, agro-chemicals - 20.12/20</t>
+  </si>
+  <si>
+    <t>Basic pharmaceutical products and pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>Manufacture of cement, lime, plaster and articles of concrete, cement and plaster</t>
+  </si>
+  <si>
+    <t>Glass, refractory, clay, other porcelain and ceramic, stone and abrasive products - 23.1-4/7-9</t>
+  </si>
+  <si>
+    <t>Basic iron and steel</t>
+  </si>
+  <si>
+    <t>Other basic metals and casting</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, excl. machinery and equipment</t>
+  </si>
+  <si>
+    <t>Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>Electrical equipment</t>
+  </si>
+  <si>
+    <t>Machinery and equipment n.e.c.</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>Ships and boats</t>
+  </si>
+  <si>
+    <t>Air and spacecraft and related machinery</t>
+  </si>
+  <si>
+    <t>Other transport equipment - 30.2/4/9</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Other manufactured goods</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of ships and boats</t>
+  </si>
+  <si>
+    <t>Repair and maintenance of aircraft and spacecraft</t>
+  </si>
+  <si>
+    <t>Rest of repair; Installation - 33.11-14/17/19/20</t>
+  </si>
+  <si>
+    <t>Electricity, transmission and distribution</t>
+  </si>
+  <si>
+    <t>Gas; distribution of gaseous fuels through mains; steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Natural water; water treatment and supply services</t>
+  </si>
+  <si>
+    <t>Sewerage services; sewage sludge</t>
+  </si>
+  <si>
+    <t>Waste collection, treatment and disposal services; materials recovery services</t>
+  </si>
+  <si>
+    <t>Remediation services and other waste management services</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade and repair services of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Rail transport services</t>
+  </si>
+  <si>
+    <t>Land transport services and transport services via pipelines, excluding rail transport</t>
+  </si>
+  <si>
+    <t>Water transport services</t>
+  </si>
+  <si>
+    <t>Air transport services</t>
+  </si>
+  <si>
+    <t>Warehousing and support services for transportation</t>
+  </si>
+  <si>
+    <t>Postal and courier services</t>
+  </si>
+  <si>
+    <t>Accommodation services</t>
+  </si>
+  <si>
+    <t>Food and beverage serving services</t>
+  </si>
+  <si>
+    <t>Publishing services</t>
+  </si>
+  <si>
+    <t>Motion Picture, Video &amp; TV Programme Production, Sound Recording &amp; Music Publishing Activities &amp; Programming And Broadcasting Activities</t>
+  </si>
+  <si>
+    <t>Telecommunications services</t>
+  </si>
+  <si>
+    <t>Computer programming, consultancy and related services</t>
+  </si>
+  <si>
+    <t>Information services</t>
+  </si>
+  <si>
+    <t>Financial services, except insurance and pension funding</t>
+  </si>
+  <si>
+    <t>Insurance, reinsurance and pension funding services, except compulsory social security</t>
+  </si>
+  <si>
+    <t>Services auxiliary to financial services and insurance services</t>
+  </si>
+  <si>
+    <t>Real estate services, excluding on a fee or contract basis and excluding imputed rent</t>
+  </si>
+  <si>
+    <t>Real estate activities on a fee or contract basis</t>
   </si>
   <si>
     <t>Legal services</t>
@@ -374,1134 +2264,1427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D101"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="17.62109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="27.6015625" customWidth="true"/>
+    <col min="3" max="3" width="25.37890625" customWidth="true"/>
+    <col min="4" max="4" width="28.26953125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>631</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>632</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1.975791332688829</v>
+        <v>1.6355761955989201</v>
       </c>
       <c r="B2" s="0">
-        <v>2.1015673787161555</v>
+        <v>1.6723668499631021</v>
       </c>
       <c r="C2" s="0">
-        <v>0.1257760460273265</v>
+        <v>2.0753937031605072</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1.6992913963942819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.18579315169557067</v>
+        <v>0.29592499853292398</v>
       </c>
       <c r="B3" s="0">
-        <v>0.23235056537956708</v>
+        <v>0.33480754428816906</v>
       </c>
       <c r="C3" s="0">
-        <v>0.046557413683996407</v>
+        <v>0.35416544395285654</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.34756960133428633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2492226407492803</v>
+        <v>0.18459507893468685</v>
       </c>
       <c r="B4" s="0">
-        <v>0.26172479515222008</v>
+        <v>0.18856902296101599</v>
       </c>
       <c r="C4" s="0">
-        <v>0.01250215440293978</v>
+        <v>0.19314491157407157</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.19447939962661001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.020792774658455568</v>
+        <v>0.18797791784099671</v>
       </c>
       <c r="B5" s="0">
-        <v>0.098123573930837454</v>
+        <v>0.26042692507151793</v>
       </c>
       <c r="C5" s="0">
-        <v>0.077330799272381887</v>
+        <v>0.26647723938454365</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.23711141147061365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1.5894690852864639</v>
+        <v>8.2890608110343216</v>
       </c>
       <c r="B6" s="0">
-        <v>3.8396322694337055</v>
+        <v>10.146471468947373</v>
       </c>
       <c r="C6" s="0">
-        <v>2.2501631841472416</v>
+        <v>13.76911069844452</v>
+      </c>
+      <c r="D6" s="0">
+        <v>13.437068340850667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.18834108961301191</v>
+        <v>0.47334420756962226</v>
       </c>
       <c r="B7" s="0">
-        <v>0.56182094757201673</v>
+        <v>0.5436959012314555</v>
       </c>
       <c r="C7" s="0">
-        <v>0.37347985795900485</v>
+        <v>0.55228385605428665</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.54457396978625028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.19419717143500551</v>
+        <v>0.57159486008993265</v>
       </c>
       <c r="B8" s="0">
-        <v>0.47581146573180427</v>
+        <v>0.67303332482462364</v>
       </c>
       <c r="C8" s="0">
-        <v>0.28161429429679874</v>
+        <v>0.86046384359522388</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.84272402090682497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1.0809734439454817</v>
+        <v>0.79660987638218339</v>
       </c>
       <c r="B9" s="0">
-        <v>1.2176954124205739</v>
+        <v>0.826855998288754</v>
       </c>
       <c r="C9" s="0">
-        <v>0.13672196847509221</v>
+        <v>0.85030922788555896</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.85649861997829002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.57458143645428228</v>
+        <v>0.4172194474622179</v>
       </c>
       <c r="B10" s="0">
-        <v>0.66057758348838524</v>
+        <v>0.4346545809950742</v>
       </c>
       <c r="C10" s="0">
-        <v>0.085996147034102965</v>
+        <v>0.45390596725827559</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.45673672083362765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.33091282391685234</v>
+        <v>0.46737932839313773</v>
       </c>
       <c r="B11" s="0">
-        <v>0.35562422495238222</v>
+        <v>0.47823844909086244</v>
       </c>
       <c r="C11" s="0">
-        <v>0.024711401035529879</v>
+        <v>0.49343184092615144</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.49364572579763816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.36727395198384871</v>
+        <v>0.32340860714308872</v>
       </c>
       <c r="B12" s="0">
-        <v>0.4082688410989726</v>
+        <v>0.33480206652270245</v>
       </c>
       <c r="C12" s="0">
-        <v>0.040994889115123889</v>
+        <v>0.34644429857283243</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.34795852888568396</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.55412780965222297</v>
+        <v>0.389373816296747</v>
       </c>
       <c r="B13" s="0">
-        <v>0.57127598040850502</v>
+        <v>0.39529268393628869</v>
       </c>
       <c r="C13" s="0">
-        <v>0.017148170756282055</v>
+        <v>0.4057021192239057</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.40396803312135809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.41362699092248945</v>
+        <v>0.30712257667985687</v>
       </c>
       <c r="B14" s="0">
-        <v>0.51310637516741253</v>
+        <v>0.3277258220527523</v>
       </c>
       <c r="C14" s="0">
-        <v>0.099479384244923086</v>
+        <v>0.34335543795318113</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.34759653024424547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1.0481141319044076</v>
+        <v>0.69943587880514102</v>
       </c>
       <c r="B15" s="0">
-        <v>1.1187464997377585</v>
+        <v>0.71641320671651798</v>
       </c>
       <c r="C15" s="0">
-        <v>0.070632367833350918</v>
+        <v>0.73481717304827221</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.74226595314679911</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.41415043675224011</v>
+        <v>0.31919802255679547</v>
       </c>
       <c r="B16" s="0">
-        <v>0.42676512632437946</v>
+        <v>0.32299497212226103</v>
       </c>
       <c r="C16" s="0">
-        <v>0.012614689572139348</v>
+        <v>0.35571312847376879</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.3266965092305133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1.0700099941464321</v>
+        <v>0.54108430466264545</v>
       </c>
       <c r="B17" s="0">
-        <v>1.0972734092772294</v>
+        <v>0.54787039892829859</v>
       </c>
       <c r="C17" s="0">
-        <v>0.02726341513079733</v>
+        <v>0.56140155971330152</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.57846835344328462</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.240648521694384</v>
+        <v>0.12899629139069035</v>
       </c>
       <c r="B18" s="0">
-        <v>0.2479220477635013</v>
+        <v>0.13052099446336471</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0072735260691172976</v>
+        <v>0.1338720776055447</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.13739674785755071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1.6293525089968512</v>
+        <v>0.28323567607206956</v>
       </c>
       <c r="B19" s="0">
-        <v>2.498512127003953</v>
+        <v>0.29822454453091063</v>
       </c>
       <c r="C19" s="0">
-        <v>0.86915961800710173</v>
+        <v>0.3049156985650851</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.30641969345188474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.14372847852869844</v>
+        <v>0.050060148648789549</v>
       </c>
       <c r="B20" s="0">
-        <v>0.14920656066720211</v>
+        <v>0.050490137671724465</v>
       </c>
       <c r="C20" s="0">
-        <v>0.005478082138503676</v>
+        <v>0.051658887541356356</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.052294046411337655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.11026932026952635</v>
+        <v>0.021823445794062847</v>
       </c>
       <c r="B21" s="0">
-        <v>0.12826416780132868</v>
+        <v>0.022909020135269766</v>
       </c>
       <c r="C21" s="0">
-        <v>0.017994847531802333</v>
+        <v>0.023140594310236098</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.024141368407847551</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6673772899465874</v>
+        <v>1.0838823171251644</v>
       </c>
       <c r="B22" s="0">
-        <v>0.88664310074400465</v>
+        <v>1.1359469571252354</v>
       </c>
       <c r="C22" s="0">
-        <v>0.21926581079741725</v>
+        <v>1.2296645026573092</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1.2261662857538191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>1.563473117609018</v>
+        <v>1.4175589970032119</v>
       </c>
       <c r="B23" s="0">
-        <v>2.0832663656666304</v>
+        <v>1.5180777303822179</v>
       </c>
       <c r="C23" s="0">
-        <v>0.5197932480576124</v>
+        <v>1.5706177289631842</v>
+      </c>
+      <c r="D23" s="0">
+        <v>1.5496842233984671</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.54406722761792525</v>
+        <v>0.2869014891108716</v>
       </c>
       <c r="B24" s="0">
-        <v>0.62137976589996935</v>
+        <v>0.34865544926319586</v>
       </c>
       <c r="C24" s="0">
-        <v>0.077312538282044097</v>
+        <v>0.30270820137792431</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.30732694950210959</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>1.4590391245309406</v>
+        <v>2.9259704374942559</v>
       </c>
       <c r="B25" s="0">
-        <v>2.3837138510723754</v>
+        <v>3.7656042201443314</v>
       </c>
       <c r="C25" s="0">
-        <v>0.92467472654143479</v>
+        <v>4.0822715964969403</v>
+      </c>
+      <c r="D25" s="0">
+        <v>3.9758797465550235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.25428357067061064</v>
+        <v>0.39070076393992059</v>
       </c>
       <c r="B26" s="0">
-        <v>0.52933963419343733</v>
+        <v>0.52813633117623404</v>
       </c>
       <c r="C26" s="0">
-        <v>0.27505606352282669</v>
+        <v>0.44678930571695863</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.45043506333477029</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.36748447896263881</v>
+        <v>0.14920588639054849</v>
       </c>
       <c r="B27" s="0">
-        <v>0.4282441702591252</v>
+        <v>0.18074299468170069</v>
       </c>
       <c r="C27" s="0">
-        <v>0.060759691296486396</v>
+        <v>0.15454019922514659</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.15561465657763424</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.85055718464156005</v>
+        <v>1.1470091078128992</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2657750976637128</v>
+        <v>1.7206372427464727</v>
       </c>
       <c r="C28" s="0">
-        <v>1.4152179130221527</v>
+        <v>1.3094487760849161</v>
+      </c>
+      <c r="D28" s="0">
+        <v>1.2900893871217485</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.38998454258809312</v>
+        <v>1.0205221694516851</v>
       </c>
       <c r="B29" s="0">
-        <v>1.6418644738655028</v>
+        <v>1.8411765682738808</v>
       </c>
       <c r="C29" s="0">
-        <v>1.2518799312774096</v>
+        <v>1.3551680640693544</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1.2865183167890659</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1.2331548800755519</v>
+        <v>2.6661985504132271</v>
       </c>
       <c r="B30" s="0">
-        <v>4.3746692832946383</v>
+        <v>4.3722478088446248</v>
       </c>
       <c r="C30" s="0">
-        <v>3.1415144032190865</v>
+        <v>4.2165367237621387</v>
+      </c>
+      <c r="D30" s="0">
+        <v>3.9575638937456552</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.40883668762529185</v>
+        <v>0.38120526754000728</v>
       </c>
       <c r="B31" s="0">
-        <v>0.6943788297788972</v>
+        <v>0.5200613736953239</v>
       </c>
       <c r="C31" s="0">
-        <v>0.28554214215360535</v>
+        <v>0.44760566715447181</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.40857703245269267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>2.2794347247886471</v>
+        <v>1.2367536387041838</v>
       </c>
       <c r="B32" s="0">
-        <v>3.075470917859505</v>
+        <v>1.5656132661611371</v>
       </c>
       <c r="C32" s="0">
-        <v>0.79603619307085793</v>
+        <v>1.2496760641797482</v>
+      </c>
+      <c r="D32" s="0">
+        <v>1.2502763638751886</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>1.9071631018562489</v>
+        <v>1.819136829853699</v>
       </c>
       <c r="B33" s="0">
-        <v>3.5644903997231068</v>
+        <v>2.4443021925791166</v>
       </c>
       <c r="C33" s="0">
-        <v>1.6573272978668578</v>
+        <v>2.4898104951169691</v>
+      </c>
+      <c r="D33" s="0">
+        <v>2.053872549710225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.2713825139286693</v>
+        <v>1.0420495963009586</v>
       </c>
       <c r="B34" s="0">
-        <v>0.52173621822457894</v>
+        <v>1.2948626632448017</v>
       </c>
       <c r="C34" s="0">
-        <v>0.25035370429590964</v>
+        <v>1.2167599793324797</v>
+      </c>
+      <c r="D34" s="0">
+        <v>1.2126011124641858</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.57290147448784734</v>
+        <v>0.76706808191914</v>
       </c>
       <c r="B35" s="0">
-        <v>1.0966428646939861</v>
+        <v>1.0226696935730868</v>
       </c>
       <c r="C35" s="0">
-        <v>0.52374139020613875</v>
+        <v>0.90762152764470438</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.88054658488808701</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1.1549959869961703</v>
+        <v>2.3938780215868309</v>
       </c>
       <c r="B36" s="0">
-        <v>4.4656823677279691</v>
+        <v>3.7557886892886354</v>
       </c>
       <c r="C36" s="0">
-        <v>3.3106863807317986</v>
+        <v>3.7739337670932813</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2.9302898088051994</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.96617535661954035</v>
+        <v>1.7136459117333045</v>
       </c>
       <c r="B37" s="0">
-        <v>4.0099747768482876</v>
+        <v>2.8455637684380468</v>
       </c>
       <c r="C37" s="0">
-        <v>3.0437994202287473</v>
+        <v>2.8598193267147227</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2.0697321521695233</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.24096799358801022</v>
+        <v>2.8805564420618475</v>
       </c>
       <c r="B38" s="0">
-        <v>0.27529178181618891</v>
+        <v>4.1281825634400269</v>
       </c>
       <c r="C38" s="0">
-        <v>0.034323788228178692</v>
+        <v>4.3043913933597535</v>
+      </c>
+      <c r="D38" s="0">
+        <v>4.1723085320181674</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>1.6735523870297899</v>
+        <v>2.6359148627400799</v>
       </c>
       <c r="B39" s="0">
-        <v>4.5279585935059927</v>
+        <v>3.3997184006693506</v>
       </c>
       <c r="C39" s="0">
-        <v>2.8544062064762028</v>
+        <v>3.5585327756804332</v>
+      </c>
+      <c r="D39" s="0">
+        <v>3.5912980142707154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>4.0421006034679028</v>
+        <v>1.0937278837912063</v>
       </c>
       <c r="B40" s="0">
-        <v>5.7800825104755758</v>
+        <v>1.4824638218718269</v>
       </c>
       <c r="C40" s="0">
-        <v>1.737981907007673</v>
+        <v>1.3233646330522602</v>
+      </c>
+      <c r="D40" s="0">
+        <v>1.3056360735996011</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.74382577281238049</v>
+        <v>2.6428189691543111</v>
       </c>
       <c r="B41" s="0">
-        <v>1.416649889870315</v>
+        <v>3.7603455292176187</v>
       </c>
       <c r="C41" s="0">
-        <v>0.67282411705793455</v>
+        <v>4.0714214141462497</v>
+      </c>
+      <c r="D41" s="0">
+        <v>3.9909103195203217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1.6019553611415962</v>
+        <v>1.9173015566928169</v>
       </c>
       <c r="B42" s="0">
-        <v>3.8628104885348931</v>
+        <v>2.5075254905429838</v>
       </c>
       <c r="C42" s="0">
-        <v>2.2608551273932971</v>
+        <v>2.0797175875741574</v>
+      </c>
+      <c r="D42" s="0">
+        <v>2.5934274914096864</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1.6885101770117796</v>
+        <v>0.12656651320838277</v>
       </c>
       <c r="B43" s="0">
-        <v>2.626015124186599</v>
+        <v>0.1704151518406693</v>
       </c>
       <c r="C43" s="0">
-        <v>0.93750494717481936</v>
+        <v>0.15361468014920129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>0.15323471880010234</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.12220567600517861</v>
+        <v>0.51405056474386057</v>
       </c>
       <c r="B44" s="0">
-        <v>0.22316269075043604</v>
+        <v>0.66160937451343071</v>
       </c>
       <c r="C44" s="0">
-        <v>0.10095701474525744</v>
+        <v>0.52958834634939789</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.53478756617250633</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.4327953197066986</v>
+        <v>0.49090784315885411</v>
       </c>
       <c r="B45" s="0">
-        <v>0.55645406128042429</v>
+        <v>0.80189537713758297</v>
       </c>
       <c r="C45" s="0">
-        <v>0.12365874157372569</v>
+        <v>0.63600236928441245</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0.58351014066070783</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.4965359164811517</v>
+        <v>0.097901318027231302</v>
       </c>
       <c r="B46" s="0">
-        <v>1.564511739921236</v>
+        <v>0.11835150896774027</v>
       </c>
       <c r="C46" s="0">
-        <v>1.0679758234400842</v>
+        <v>0.10497566742006569</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0.10615543693720098</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.16000254370989925</v>
+        <v>0.47682766765416135</v>
       </c>
       <c r="B47" s="0">
-        <v>0.17319996395748408</v>
+        <v>0.59764715814480773</v>
       </c>
       <c r="C47" s="0">
-        <v>0.013197420247584829</v>
+        <v>0.53968230786200277</v>
+      </c>
+      <c r="D47" s="0">
+        <v>0.52964626833398731</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.91377813919133288</v>
+        <v>0.063444614935149204</v>
       </c>
       <c r="B48" s="0">
-        <v>1.1021144209599343</v>
+        <v>0.086865639547809043</v>
       </c>
       <c r="C48" s="0">
-        <v>0.1883362817686014</v>
+        <v>0.0911383813665331</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0.089442390181468531</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.027972339101257231</v>
+        <v>0.18205388163700867</v>
       </c>
       <c r="B49" s="0">
-        <v>0.061493057552383296</v>
+        <v>0.228409519059289</v>
       </c>
       <c r="C49" s="0">
-        <v>0.033520718451126065</v>
+        <v>0.1953394448434905</v>
+      </c>
+      <c r="D49" s="0">
+        <v>0.19423379251949294</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.095300194298444774</v>
+        <v>1.5864611043220838</v>
       </c>
       <c r="B50" s="0">
-        <v>0.13375748230429599</v>
+        <v>2.221545140888801</v>
       </c>
       <c r="C50" s="0">
-        <v>0.038457288005851215</v>
+        <v>2.375003420007975</v>
+      </c>
+      <c r="D50" s="0">
+        <v>1.9463127586018529</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1.3238467066416237</v>
+        <v>6.9578346565349616</v>
       </c>
       <c r="B51" s="0">
-        <v>2.5617972503373965</v>
+        <v>10.217347191748573</v>
       </c>
       <c r="C51" s="0">
-        <v>1.2379505436957727</v>
+        <v>10.954180447797611</v>
+      </c>
+      <c r="D51" s="0">
+        <v>10.759361662036945</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>2.7674768154917979</v>
+        <v>6.9359474037978233</v>
       </c>
       <c r="B52" s="0">
-        <v>4.3628488779924517</v>
+        <v>8.3613361674492204</v>
       </c>
       <c r="C52" s="0">
-        <v>1.5953720625006538</v>
+        <v>11.991687871231763</v>
+      </c>
+      <c r="D52" s="0">
+        <v>11.77116312463734</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1.3685778435404312</v>
+        <v>0.29073836525325203</v>
       </c>
       <c r="B53" s="0">
-        <v>2.1283145918446227</v>
+        <v>0.31803922274693341</v>
       </c>
       <c r="C53" s="0">
-        <v>0.75973674830419147</v>
+        <v>0.32790728720093892</v>
+      </c>
+      <c r="D53" s="0">
+        <v>0.32347719460157565</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.43282134571509984</v>
+        <v>0.26640506159537242</v>
       </c>
       <c r="B54" s="0">
-        <v>0.56978425531921262</v>
+        <v>0.28566032761073562</v>
       </c>
       <c r="C54" s="0">
-        <v>0.13696290960411278</v>
+        <v>0.29248968829943806</v>
+      </c>
+      <c r="D54" s="0">
+        <v>0.28834088305056743</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.39377431689251297</v>
+        <v>0.76022503988536361</v>
       </c>
       <c r="B55" s="0">
-        <v>0.50209671021770574</v>
+        <v>0.85490679935503811</v>
       </c>
       <c r="C55" s="0">
-        <v>0.10832239332519278</v>
+        <v>0.88103870389987027</v>
+      </c>
+      <c r="D55" s="0">
+        <v>0.84875060324904394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.86487848237954312</v>
+        <v>0.053793913503653</v>
       </c>
       <c r="B56" s="0">
-        <v>1.2900402053196485</v>
+        <v>0.055651026076500833</v>
       </c>
       <c r="C56" s="0">
-        <v>0.42516172294010535</v>
+        <v>0.0566239550998896</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0.056701171767404204</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.056457474461981502</v>
+        <v>7.6665879615582559</v>
       </c>
       <c r="B57" s="0">
-        <v>0.063062717860017853</v>
+        <v>7.9981006220143831</v>
       </c>
       <c r="C57" s="0">
-        <v>0.0066052433980363506</v>
+        <v>10.724188845421365</v>
+      </c>
+      <c r="D57" s="0">
+        <v>10.676512129674315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>3.6890917812111437</v>
+        <v>0.50361181163934055</v>
       </c>
       <c r="B58" s="0">
-        <v>4.5019896235594548</v>
+        <v>0.52447946137008938</v>
       </c>
       <c r="C58" s="0">
-        <v>0.81289784234831108</v>
+        <v>0.57570799616256751</v>
+      </c>
+      <c r="D58" s="0">
+        <v>0.55735466546048529</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.54584772510010926</v>
+        <v>0.18042626079209118</v>
       </c>
       <c r="B59" s="0">
-        <v>0.66702182479828209</v>
+        <v>0.18878560370824735</v>
       </c>
       <c r="C59" s="0">
-        <v>0.12117409969817283</v>
+        <v>0.19251549124977077</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0.19094845880581512</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.16357927760838875</v>
+        <v>2.2593142259812184</v>
       </c>
       <c r="B60" s="0">
-        <v>0.20838353707584964</v>
+        <v>2.5518595009102052</v>
       </c>
       <c r="C60" s="0">
-        <v>0.044804259467460888</v>
+        <v>3.1414978528486848</v>
+      </c>
+      <c r="D60" s="0">
+        <v>3.0533160434426811</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>2.1502096276562579</v>
+        <v>0.33509056446880026</v>
       </c>
       <c r="B61" s="0">
-        <v>3.43808845017807</v>
+        <v>0.36008795419948603</v>
       </c>
       <c r="C61" s="0">
-        <v>1.2878788225218121</v>
+        <v>0.38546758354934069</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0.39950867587294719</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.12041960184099366</v>
+        <v>0.71638082383868362</v>
       </c>
       <c r="B62" s="0">
-        <v>0.21204753812375765</v>
+        <v>0.75592109723505407</v>
       </c>
       <c r="C62" s="0">
-        <v>0.091627936282763986</v>
+        <v>0.83471951113535547</v>
+      </c>
+      <c r="D62" s="0">
+        <v>0.82318177608991983</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.42030025818691596</v>
+        <v>1.4414094311559138</v>
       </c>
       <c r="B63" s="0">
-        <v>0.5673169935593072</v>
+        <v>1.5497150773646831</v>
       </c>
       <c r="C63" s="0">
-        <v>0.14701673537239124</v>
+        <v>1.6305872529631809</v>
+      </c>
+      <c r="D63" s="0">
+        <v>1.9866617005607552</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.94381286521851515</v>
+        <v>1.679909856608288</v>
       </c>
       <c r="B64" s="0">
-        <v>1.5011287763073236</v>
+        <v>1.8346569059941351</v>
       </c>
       <c r="C64" s="0">
-        <v>0.5573159110888084</v>
+        <v>2.4436504913183201</v>
+      </c>
+      <c r="D64" s="0">
+        <v>1.9356730842842702</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>1.6304705270418787</v>
+        <v>0.47134433109520874</v>
       </c>
       <c r="B65" s="0">
-        <v>2.445434689183311</v>
+        <v>0.48482594209354363</v>
       </c>
       <c r="C65" s="0">
-        <v>0.8149641621414323</v>
+        <v>0.54445546264082523</v>
+      </c>
+      <c r="D65" s="0">
+        <v>0.54147010366005588</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.40663854986260994</v>
+        <v>0.71723635536124908</v>
       </c>
       <c r="B66" s="0">
-        <v>0.47544904753019385</v>
+        <v>0.76047831310078384</v>
       </c>
       <c r="C66" s="0">
-        <v>0.068810497667583903</v>
+        <v>0.82315639081733238</v>
+      </c>
+      <c r="D66" s="0">
+        <v>0.96245004630763686</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.90775180222158258</v>
+        <v>0.24183683206434156</v>
       </c>
       <c r="B67" s="0">
-        <v>1.0819374893763727</v>
+        <v>0.25592997554729091</v>
       </c>
       <c r="C67" s="0">
-        <v>0.1741856871547901</v>
+        <v>0.2694002856989966</v>
+      </c>
+      <c r="D67" s="0">
+        <v>0.26592438143843095</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.42940946704688521</v>
+        <v>0.69940417728223303</v>
       </c>
       <c r="B68" s="0">
-        <v>0.52219800661654014</v>
+        <v>0.7002751472398816</v>
       </c>
       <c r="C68" s="0">
-        <v>0.092788539569654938</v>
+        <v>0.70365490457175417</v>
+      </c>
+      <c r="D68" s="0">
+        <v>0.70429476401867375</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.50863179152522564</v>
+        <v>1.390702355437921</v>
       </c>
       <c r="B69" s="0">
-        <v>0.51695655171859811</v>
+        <v>1.4559800775498848</v>
       </c>
       <c r="C69" s="0">
-        <v>0.0083247601933724713</v>
+        <v>1.6169867633555923</v>
+      </c>
+      <c r="D69" s="0">
+        <v>1.921568007364459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>1.6475078667743601</v>
+        <v>4.3457574373873795</v>
       </c>
       <c r="B70" s="0">
-        <v>2.0354836230724969</v>
+        <v>4.6159811089892031</v>
       </c>
       <c r="C70" s="0">
-        <v>0.38797575629813674</v>
+        <v>6.2518341321089146</v>
+      </c>
+      <c r="D70" s="0">
+        <v>6.1787978491432467</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>3.3903349912340106</v>
+        <v>0.55775775555673734</v>
       </c>
       <c r="B71" s="0">
-        <v>4.6702364712621298</v>
+        <v>0.58527009750615822</v>
       </c>
       <c r="C71" s="0">
-        <v>1.2799014800281192</v>
+        <v>0.6808916044995752</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0.68114073183562407</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.47589581009683157</v>
+        <v>4.6729185077592854</v>
       </c>
       <c r="B72" s="0">
-        <v>0.5978593879358628</v>
+        <v>5.2262137392956687</v>
       </c>
       <c r="C72" s="0">
-        <v>0.12196357783903122</v>
+        <v>6.6655760163393003</v>
+      </c>
+      <c r="D72" s="0">
+        <v>6.5455671251808401</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>4.9318779173107101</v>
+        <v>1.3162173091436038</v>
       </c>
       <c r="B73" s="0">
-        <v>7.555144357146788</v>
+        <v>1.4399638412983711</v>
       </c>
       <c r="C73" s="0">
-        <v>2.6232664398360779</v>
+        <v>1.5180271560213305</v>
+      </c>
+      <c r="D73" s="0">
+        <v>1.8105554346942041</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.88364298905290839</v>
+        <v>3.2712357294361456</v>
       </c>
       <c r="B74" s="0">
-        <v>1.3287801132957355</v>
+        <v>3.4300992175240781</v>
       </c>
       <c r="C74" s="0">
-        <v>0.44513712424282714</v>
+        <v>4.6597328514761598</v>
+      </c>
+      <c r="D74" s="0">
+        <v>4.6812409287295651</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>2.3509207853634435</v>
+        <v>1.8814922260400897</v>
       </c>
       <c r="B75" s="0">
-        <v>3.145490819395913</v>
+        <v>1.9620427231716877</v>
       </c>
       <c r="C75" s="0">
-        <v>0.79457003403246951</v>
+        <v>2.5419096421057117</v>
+      </c>
+      <c r="D75" s="0">
+        <v>2.5447011018391152</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>2.8272621776352209</v>
+        <v>0.058858283432287224</v>
       </c>
       <c r="B76" s="0">
-        <v>3.3342642741221367</v>
+        <v>0.060298798611238894</v>
       </c>
       <c r="C76" s="0">
-        <v>0.50700209648691574</v>
+        <v>0.065363610634843167</v>
+      </c>
+      <c r="D76" s="0">
+        <v>0.068118972716617432</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.058718242269431523</v>
+        <v>1.7266155990280394</v>
       </c>
       <c r="B77" s="0">
-        <v>0.066118105896920035</v>
+        <v>1.8804485210930901</v>
       </c>
       <c r="C77" s="0">
-        <v>0.0073998636274885121</v>
+        <v>2.4426495488231317</v>
+      </c>
+      <c r="D77" s="0">
+        <v>2.4169864583368947</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>1.923439148004167</v>
+        <v>1.6454821694079171</v>
       </c>
       <c r="B78" s="0">
-        <v>2.752541226554639</v>
+        <v>1.7743852372924653</v>
       </c>
       <c r="C78" s="0">
-        <v>0.82910207855047191</v>
+        <v>2.3439796981072027</v>
+      </c>
+      <c r="D78" s="0">
+        <v>1.9374244031003678</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>1.6968332730586997</v>
+        <v>3.1091492073045313</v>
       </c>
       <c r="B79" s="0">
-        <v>2.323761670885613</v>
+        <v>3.3397820171539512</v>
       </c>
       <c r="C79" s="0">
-        <v>0.62692839782691334</v>
+        <v>4.596494257041484</v>
+      </c>
+      <c r="D79" s="0">
+        <v>4.5656572250129326</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>2.250006308864172</v>
+        <v>2.3131151019189096</v>
       </c>
       <c r="B80" s="0">
-        <v>2.928911053431428</v>
+        <v>2.5409287444870841</v>
       </c>
       <c r="C80" s="0">
-        <v>0.67890474456725602</v>
+        <v>3.3958891188076548</v>
+      </c>
+      <c r="D80" s="0">
+        <v>3.3425541754524417</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>1.2414594108413495</v>
+        <v>0.71863027255684264</v>
       </c>
       <c r="B81" s="0">
-        <v>2.1946687095012574</v>
+        <v>0.71878122648776899</v>
       </c>
       <c r="C81" s="0">
-        <v>0.95320929865990789</v>
+        <v>0.71887645310958515</v>
+      </c>
+      <c r="D81" s="0">
+        <v>0.71923329780497869</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.018572638029034316</v>
+        <v>2.1577093402468526</v>
       </c>
       <c r="B82" s="0">
-        <v>0.019240777346711979</v>
+        <v>2.2614271118251992</v>
       </c>
       <c r="C82" s="0">
-        <v>0.00066813931767766357</v>
+        <v>2.9509323353292332</v>
+      </c>
+      <c r="D82" s="0">
+        <v>2.9365076928158138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>2.2122148672295441</v>
+        <v>1.7004246163210013</v>
       </c>
       <c r="B83" s="0">
-        <v>2.8050720186676807</v>
+        <v>1.7796680573958361</v>
       </c>
       <c r="C83" s="0">
-        <v>0.59285715143813666</v>
+        <v>2.4491835585154091</v>
+      </c>
+      <c r="D83" s="0">
+        <v>1.9153435335958355</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>1.4938250500630357</v>
+        <v>0.046314249248724557</v>
       </c>
       <c r="B84" s="0">
-        <v>2.076035027563218</v>
+        <v>0.04690089203283089</v>
       </c>
       <c r="C84" s="0">
-        <v>0.58220997750018233</v>
+        <v>0.053271143912676733</v>
+      </c>
+      <c r="D84" s="0">
+        <v>0.047357605853725164</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.080131786841881755</v>
+        <v>1.6142745895848785</v>
       </c>
       <c r="B85" s="0">
-        <v>0.082290344581659305</v>
+        <v>1.7404165294623752</v>
       </c>
       <c r="C85" s="0">
-        <v>0.0021585577397775502</v>
+        <v>1.8970004067935937</v>
+      </c>
+      <c r="D85" s="0">
+        <v>1.8565527358615941</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>1.3869513543374079</v>
+        <v>3.0238401803874777</v>
       </c>
       <c r="B86" s="0">
-        <v>1.9806131662861943</v>
+        <v>3.2170016454320312</v>
       </c>
       <c r="C86" s="0">
-        <v>0.59366181194878642</v>
+        <v>4.3431253507749643</v>
+      </c>
+      <c r="D86" s="0">
+        <v>4.3025545858726577</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>2.9960937242751484</v>
+        <v>0.30789533667676977</v>
       </c>
       <c r="B87" s="0">
-        <v>4.1451867699436669</v>
+        <v>0.31579093506723693</v>
       </c>
       <c r="C87" s="0">
-        <v>1.1490930456685184</v>
+        <v>0.33744513046093488</v>
+      </c>
+      <c r="D87" s="0">
+        <v>0.33917494020254774</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.16349209094656764</v>
+        <v>0.40839764665424083</v>
       </c>
       <c r="B88" s="0">
-        <v>0.19426781908817206</v>
+        <v>0.41798084356590703</v>
       </c>
       <c r="C88" s="0">
-        <v>0.030775728141604425</v>
+        <v>0.45167427439395236</v>
+      </c>
+      <c r="D88" s="0">
+        <v>0.45095750775734955</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.35637825302834347</v>
+        <v>1.2748073710521541</v>
       </c>
       <c r="B89" s="0">
-        <v>0.3992414583810156</v>
+        <v>1.3092401699492275</v>
       </c>
       <c r="C89" s="0">
-        <v>0.042863205352672129</v>
+        <v>1.4093185732150231</v>
+      </c>
+      <c r="D89" s="0">
+        <v>1.4100519432196152</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>1.2368474515384613</v>
+        <v>2.5833645073591991</v>
       </c>
       <c r="B90" s="0">
-        <v>1.3780356677825971</v>
+        <v>2.7439076154404467</v>
       </c>
       <c r="C90" s="0">
-        <v>0.1411882162441358</v>
+        <v>3.7390524712140745</v>
+      </c>
+      <c r="D90" s="0">
+        <v>3.7224291509117977</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>1.7313423866036126</v>
+        <v>0.95758193085770138</v>
       </c>
       <c r="B91" s="0">
-        <v>2.3208261530944707</v>
+        <v>1.0163536699324702</v>
       </c>
       <c r="C91" s="0">
-        <v>0.5894837664908581</v>
+        <v>1.155552093891564</v>
+      </c>
+      <c r="D91" s="0">
+        <v>1.3420528521255286</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>1.0705848925661365</v>
+        <v>1.0918281532208789</v>
       </c>
       <c r="B92" s="0">
-        <v>1.3597739574741003</v>
+        <v>1.117826118835352</v>
       </c>
       <c r="C92" s="0">
-        <v>0.28918906490796381</v>
+        <v>1.1963239920675346</v>
+      </c>
+      <c r="D92" s="0">
+        <v>1.4281601115152422</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>2.2370020805782445</v>
+        <v>0.12260871282084734</v>
       </c>
       <c r="B93" s="0">
-        <v>2.4151523277554876</v>
+        <v>0.12714937191717007</v>
       </c>
       <c r="C93" s="0">
-        <v>0.17815024717724315</v>
+        <v>0.12880720526948616</v>
+      </c>
+      <c r="D93" s="0">
+        <v>0.15248894290278228</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.29297608088190641</v>
+        <v>0.41982244430703136</v>
       </c>
       <c r="B94" s="0">
-        <v>0.34159131473420984</v>
+        <v>0.41996813003388106</v>
       </c>
       <c r="C94" s="0">
-        <v>0.04861523385230343</v>
+        <v>0.420080028606441</v>
+      </c>
+      <c r="D94" s="0">
+        <v>0.42032145523538017</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>1.2159587232029949</v>
+        <v>0.22156795588829514</v>
       </c>
       <c r="B95" s="0">
-        <v>1.2168552773016832</v>
+        <v>0.22281994942104383</v>
       </c>
       <c r="C95" s="0">
-        <v>0.00089655409868827363</v>
+        <v>0.22824678014108091</v>
+      </c>
+      <c r="D95" s="0">
+        <v>0.22864763707030425</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.20760117761970145</v>
+        <v>0.028848242404197755</v>
       </c>
       <c r="B96" s="0">
-        <v>0.21333272525652686</v>
+        <v>0.029032108754593857</v>
       </c>
       <c r="C96" s="0">
-        <v>0.0057315476368254015</v>
+        <v>0.029373214664027349</v>
+      </c>
+      <c r="D96" s="0">
+        <v>0.029771723258300149</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.062681448579555751</v>
+        <v>0.070070670048075212</v>
       </c>
       <c r="B97" s="0">
-        <v>0.063740572111077767</v>
+        <v>0.071773315088753328</v>
       </c>
       <c r="C97" s="0">
-        <v>0.001059123531522016</v>
+        <v>0.076234917857832749</v>
+      </c>
+      <c r="D97" s="0">
+        <v>0.075869218416492815</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.15455835561684944</v>
+        <v>0.055783740951451888</v>
       </c>
       <c r="B98" s="0">
-        <v>0.16275678005996846</v>
+        <v>0.056506135297171106</v>
       </c>
       <c r="C98" s="0">
-        <v>0.0081984244431190234</v>
+        <v>0.057306233368666568</v>
+      </c>
+      <c r="D98" s="0">
+        <v>0.057654166973909737</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.093146814407063142</v>
+        <v>0.1412040126835078</v>
       </c>
       <c r="B99" s="0">
-        <v>0.096097826391721181</v>
+        <v>0.14522038766112044</v>
       </c>
       <c r="C99" s="0">
-        <v>0.002951011984658039</v>
+        <v>0.15960898167350504</v>
+      </c>
+      <c r="D99" s="0">
+        <v>0.15853022736271169</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.16563373583142041</v>
+        <v>0.096237379354534414</v>
       </c>
       <c r="B100" s="0">
-        <v>0.18758320210451124</v>
+        <v>0.097231860997371369</v>
       </c>
       <c r="C100" s="0">
-        <v>0.021949466273090829</v>
+        <v>0.099665787638172493</v>
+      </c>
+      <c r="D100" s="0">
+        <v>0.10123336141104927</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.19300749199648359</v>
+        <v>0.13608708173482534</v>
       </c>
       <c r="B101" s="0">
-        <v>0.1983142404845129</v>
+        <v>0.13810611451207211</v>
       </c>
       <c r="C101" s="0">
-        <v>0.0053067484880293114</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0">
-        <v>0.31791363389270849</v>
-      </c>
-      <c r="B102" s="0">
-        <v>0.33270468344159565</v>
-      </c>
-      <c r="C102" s="0">
-        <v>0.014791049548887159</v>
+        <v>0.14194014179013803</v>
+      </c>
+      <c r="D101" s="0">
+        <v>0.14252344218467672</v>
       </c>
     </row>
   </sheetData>
@@ -1510,520 +3693,515 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:A101"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="118.2578125" customWidth="true"/>
+    <col min="1" max="1" width="115.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>18</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>19</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>20</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>21</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>22</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>23</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>25</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>26</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>27</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>28</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>29</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>30</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>31</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>32</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>33</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>34</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>35</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>36</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>37</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>38</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>39</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>40</v>
+        <v>671</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>41</v>
+        <v>672</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>42</v>
+        <v>673</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>43</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>44</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>45</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>46</v>
+        <v>677</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>47</v>
+        <v>678</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>48</v>
+        <v>679</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>49</v>
+        <v>680</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>50</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>51</v>
+        <v>682</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>52</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>53</v>
+        <v>684</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>54</v>
+        <v>685</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>55</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>56</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>57</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>58</v>
+        <v>689</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>59</v>
+        <v>690</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>60</v>
+        <v>691</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>61</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>62</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>63</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>64</v>
+        <v>695</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>65</v>
+        <v>696</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>66</v>
+        <v>697</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>68</v>
+        <v>699</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>69</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>70</v>
+        <v>701</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>71</v>
+        <v>702</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>72</v>
+        <v>703</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>73</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>74</v>
+        <v>705</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>75</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>76</v>
+        <v>707</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>77</v>
+        <v>708</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>78</v>
+        <v>709</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>79</v>
+        <v>710</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>80</v>
+        <v>711</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>81</v>
+        <v>712</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>82</v>
+        <v>713</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>83</v>
+        <v>714</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>84</v>
+        <v>715</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>85</v>
+        <v>716</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>86</v>
+        <v>717</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>87</v>
+        <v>718</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>88</v>
+        <v>719</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>89</v>
+        <v>720</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>90</v>
+        <v>721</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>91</v>
+        <v>722</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>92</v>
+        <v>723</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>93</v>
+        <v>724</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>94</v>
+        <v>725</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>95</v>
+        <v>726</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>96</v>
+        <v>727</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>97</v>
+        <v>728</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>98</v>
+        <v>729</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>99</v>
+        <v>730</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>100</v>
+        <v>731</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>101</v>
+        <v>732</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>102</v>
+        <v>733</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
-        <v>104</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
